--- a/published-data/fonds-solidarite/fds-2020-07-09/fonds-solidarite-volet-1-regional-classe-effectif-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2020-07-09/fonds-solidarite-volet-1-regional-classe-effectif-latest.xlsx
@@ -66,6 +66,74 @@
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -358,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H145"/>
+  <dimension ref="A1:H146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -420,10 +488,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>34545</v>
+        <v>34666</v>
       </c>
       <c r="D2" t="n">
-        <v>50057484</v>
+        <v>50224732</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -458,10 +526,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>84645</v>
+        <v>84958</v>
       </c>
       <c r="D3" t="n">
-        <v>124268474</v>
+        <v>124713672</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -496,10 +564,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>28995</v>
+        <v>29125</v>
       </c>
       <c r="D4" t="n">
-        <v>42985902</v>
+        <v>43179227</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -534,10 +602,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>7968</v>
+        <v>8002</v>
       </c>
       <c r="D5" t="n">
-        <v>11851691</v>
+        <v>11902197</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -572,10 +640,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1684</v>
+        <v>1696</v>
       </c>
       <c r="D6" t="n">
-        <v>2506354</v>
+        <v>2524354</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -610,10 +678,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D7" t="n">
-        <v>178093</v>
+        <v>182593</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -686,10 +754,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
-        <v>9000</v>
+        <v>4500</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -703,12 +771,12 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>22</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>1 000 à 1 999 salariés</t>
+          <t>100 à 199 salariés</t>
         </is>
       </c>
     </row>
@@ -724,10 +792,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>37883</v>
+        <v>6</v>
       </c>
       <c r="D10" t="n">
-        <v>51582135</v>
+        <v>9000</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -741,12 +809,12 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>NN</t>
+          <t>42</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Etablissement non employeur</t>
+          <t>1 000 à 1 999 salariés</t>
         </is>
       </c>
     </row>
@@ -762,29 +830,29 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>8893</v>
+        <v>38026</v>
       </c>
       <c r="D11" t="n">
-        <v>12882707</v>
+        <v>51776857</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>84</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Bourgogne-Franche-Comté</t>
+          <t>Auvergne-Rhône-Alpes</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>NN</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>0 salarié</t>
+          <t>Etablissement non employeur</t>
         </is>
       </c>
     </row>
@@ -800,10 +868,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>24376</v>
+        <v>8916</v>
       </c>
       <c r="D12" t="n">
-        <v>35792139</v>
+        <v>12914245</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -817,12 +885,12 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>00</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>1 ou 2 salariés</t>
+          <t>0 salarié</t>
         </is>
       </c>
     </row>
@@ -838,10 +906,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>7765</v>
+        <v>24474</v>
       </c>
       <c r="D13" t="n">
-        <v>11538413</v>
+        <v>35927448</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -855,12 +923,12 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>01</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>3 à 5 salariés</t>
+          <t>1 ou 2 salariés</t>
         </is>
       </c>
     </row>
@@ -876,10 +944,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1962</v>
+        <v>7794</v>
       </c>
       <c r="D14" t="n">
-        <v>2918476</v>
+        <v>11580874</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -893,12 +961,12 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>02</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>6 à 9 salariés</t>
+          <t>3 à 5 salariés</t>
         </is>
       </c>
     </row>
@@ -914,10 +982,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>354</v>
+        <v>1971</v>
       </c>
       <c r="D15" t="n">
-        <v>521443</v>
+        <v>2931976</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -931,12 +999,12 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>03</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>10 à 19 salariés</t>
+          <t>6 à 9 salariés</t>
         </is>
       </c>
     </row>
@@ -952,10 +1020,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>28</v>
+        <v>358</v>
       </c>
       <c r="D16" t="n">
-        <v>42000</v>
+        <v>526123</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -969,12 +1037,12 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>20 à 49 salariés</t>
+          <t>10 à 19 salariés</t>
         </is>
       </c>
     </row>
@@ -990,10 +1058,10 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="D17" t="n">
-        <v>7500</v>
+        <v>42000</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1007,12 +1075,12 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>12</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>50 à 99 salariés</t>
+          <t>20 à 49 salariés</t>
         </is>
       </c>
     </row>
@@ -1028,10 +1096,10 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>9402</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
-        <v>12505788</v>
+        <v>7500</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1045,12 +1113,12 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>NN</t>
+          <t>21</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Etablissement non employeur</t>
+          <t>50 à 99 salariés</t>
         </is>
       </c>
     </row>
@@ -1066,29 +1134,29 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>12445</v>
+        <v>9455</v>
       </c>
       <c r="D19" t="n">
-        <v>17986503</v>
+        <v>12569388</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>27</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Bretagne</t>
+          <t>Bourgogne-Franche-Comté</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>NN</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>0 salarié</t>
+          <t>Etablissement non employeur</t>
         </is>
       </c>
     </row>
@@ -1104,10 +1172,10 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>29773</v>
+        <v>12475</v>
       </c>
       <c r="D20" t="n">
-        <v>43757824</v>
+        <v>18028336</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1121,12 +1189,12 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>00</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>1 ou 2 salariés</t>
+          <t>0 salarié</t>
         </is>
       </c>
     </row>
@@ -1142,10 +1210,10 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>9681</v>
+        <v>29871</v>
       </c>
       <c r="D21" t="n">
-        <v>14400084</v>
+        <v>43899622</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1159,12 +1227,12 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>01</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>3 à 5 salariés</t>
+          <t>1 ou 2 salariés</t>
         </is>
       </c>
     </row>
@@ -1180,10 +1248,10 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2438</v>
+        <v>9714</v>
       </c>
       <c r="D22" t="n">
-        <v>3630312</v>
+        <v>14449584</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1197,12 +1265,12 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>02</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>6 à 9 salariés</t>
+          <t>3 à 5 salariés</t>
         </is>
       </c>
     </row>
@@ -1218,10 +1286,10 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>423</v>
+        <v>2447</v>
       </c>
       <c r="D23" t="n">
-        <v>629805</v>
+        <v>3641812</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1235,12 +1303,12 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>03</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>10 à 19 salariés</t>
+          <t>6 à 9 salariés</t>
         </is>
       </c>
     </row>
@@ -1256,10 +1324,10 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>27</v>
+        <v>427</v>
       </c>
       <c r="D24" t="n">
-        <v>39953</v>
+        <v>634845</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1273,12 +1341,12 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>20 à 49 salariés</t>
+          <t>10 à 19 salariés</t>
         </is>
       </c>
     </row>
@@ -1294,10 +1362,10 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>10848</v>
+        <v>28</v>
       </c>
       <c r="D25" t="n">
-        <v>14584134</v>
+        <v>41453</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1311,12 +1379,12 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>NN</t>
+          <t>12</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Etablissement non employeur</t>
+          <t>20 à 49 salariés</t>
         </is>
       </c>
     </row>
@@ -1332,29 +1400,29 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>7083</v>
+        <v>10893</v>
       </c>
       <c r="D26" t="n">
-        <v>10270095</v>
+        <v>14641323</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>53</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Centre-Val de Loire</t>
+          <t>Bretagne</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>NN</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>0 salarié</t>
+          <t>Etablissement non employeur</t>
         </is>
       </c>
     </row>
@@ -1370,10 +1438,10 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>21095</v>
+        <v>7099</v>
       </c>
       <c r="D27" t="n">
-        <v>31000075</v>
+        <v>10293959</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1387,12 +1455,12 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>00</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>1 ou 2 salariés</t>
+          <t>0 salarié</t>
         </is>
       </c>
     </row>
@@ -1408,10 +1476,10 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>7342</v>
+        <v>21147</v>
       </c>
       <c r="D28" t="n">
-        <v>10930142</v>
+        <v>31076129</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1425,12 +1493,12 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>01</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>3 à 5 salariés</t>
+          <t>1 ou 2 salariés</t>
         </is>
       </c>
     </row>
@@ -1446,10 +1514,10 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>1806</v>
+        <v>7360</v>
       </c>
       <c r="D29" t="n">
-        <v>2700286</v>
+        <v>10955797</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1463,12 +1531,12 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>02</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>6 à 9 salariés</t>
+          <t>3 à 5 salariés</t>
         </is>
       </c>
     </row>
@@ -1484,10 +1552,10 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>289</v>
+        <v>1810</v>
       </c>
       <c r="D30" t="n">
-        <v>430915</v>
+        <v>2706286</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1501,12 +1569,12 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>03</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>10 à 19 salariés</t>
+          <t>6 à 9 salariés</t>
         </is>
       </c>
     </row>
@@ -1522,10 +1590,10 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>25</v>
+        <v>295</v>
       </c>
       <c r="D31" t="n">
-        <v>37393</v>
+        <v>439915</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1539,12 +1607,12 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>20 à 49 salariés</t>
+          <t>10 à 19 salariés</t>
         </is>
       </c>
     </row>
@@ -1560,10 +1628,10 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>7658</v>
+        <v>25</v>
       </c>
       <c r="D32" t="n">
-        <v>10165367</v>
+        <v>37393</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1577,12 +1645,12 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>NN</t>
+          <t>12</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Etablissement non employeur</t>
+          <t>20 à 49 salariés</t>
         </is>
       </c>
     </row>
@@ -1598,29 +1666,29 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2750</v>
+        <v>7675</v>
       </c>
       <c r="D33" t="n">
-        <v>3968754</v>
+        <v>10186334</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>24</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Corse</t>
+          <t>Centre-Val de Loire</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>NN</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>0 salarié</t>
+          <t>Etablissement non employeur</t>
         </is>
       </c>
     </row>
@@ -1636,10 +1704,10 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>6931</v>
+        <v>2763</v>
       </c>
       <c r="D34" t="n">
-        <v>10129704</v>
+        <v>3986490</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1653,12 +1721,12 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>00</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>1 ou 2 salariés</t>
+          <t>0 salarié</t>
         </is>
       </c>
     </row>
@@ -1674,10 +1742,10 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2810</v>
+        <v>6956</v>
       </c>
       <c r="D35" t="n">
-        <v>4160023</v>
+        <v>10166222</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1691,12 +1759,12 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>01</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>3 à 5 salariés</t>
+          <t>1 ou 2 salariés</t>
         </is>
       </c>
     </row>
@@ -1712,10 +1780,10 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>752</v>
+        <v>2822</v>
       </c>
       <c r="D36" t="n">
-        <v>1120763</v>
+        <v>4178023</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1729,12 +1797,12 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>02</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>6 à 9 salariés</t>
+          <t>3 à 5 salariés</t>
         </is>
       </c>
     </row>
@@ -1750,10 +1818,10 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>129</v>
+        <v>761</v>
       </c>
       <c r="D37" t="n">
-        <v>192804</v>
+        <v>1134263</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1767,12 +1835,12 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>03</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>10 à 19 salariés</t>
+          <t>6 à 9 salariés</t>
         </is>
       </c>
     </row>
@@ -1788,10 +1856,10 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>130</v>
       </c>
       <c r="D38" t="n">
-        <v>6000</v>
+        <v>194304</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -1805,12 +1873,12 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>20 à 49 salariés</t>
+          <t>10 à 19 salariés</t>
         </is>
       </c>
     </row>
@@ -1826,10 +1894,10 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2129</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
-        <v>2870482</v>
+        <v>6000</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -1843,12 +1911,12 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>NN</t>
+          <t>12</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Etablissement non employeur</t>
+          <t>20 à 49 salariés</t>
         </is>
       </c>
     </row>
@@ -1864,29 +1932,29 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>15882</v>
+        <v>2138</v>
       </c>
       <c r="D40" t="n">
-        <v>22998460</v>
+        <v>2882432</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>94</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Grand Est</t>
+          <t>Corse</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>NN</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>0 salarié</t>
+          <t>Etablissement non employeur</t>
         </is>
       </c>
     </row>
@@ -1902,10 +1970,10 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>47787</v>
+        <v>15956</v>
       </c>
       <c r="D41" t="n">
-        <v>70130771</v>
+        <v>23103331</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -1919,12 +1987,12 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>00</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>1 ou 2 salariés</t>
+          <t>0 salarié</t>
         </is>
       </c>
     </row>
@@ -1940,10 +2008,10 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>17899</v>
+        <v>47963</v>
       </c>
       <c r="D42" t="n">
-        <v>26597840</v>
+        <v>70383427</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -1957,12 +2025,12 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>01</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>3 à 5 salariés</t>
+          <t>1 ou 2 salariés</t>
         </is>
       </c>
     </row>
@@ -1978,10 +2046,10 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5180</v>
+        <v>17982</v>
       </c>
       <c r="D43" t="n">
-        <v>7721916</v>
+        <v>26718524</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -1995,12 +2063,12 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>02</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>6 à 9 salariés</t>
+          <t>3 à 5 salariés</t>
         </is>
       </c>
     </row>
@@ -2016,10 +2084,10 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>996</v>
+        <v>5196</v>
       </c>
       <c r="D44" t="n">
-        <v>1488353</v>
+        <v>7745916</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -2033,12 +2101,12 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>03</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>10 à 19 salariés</t>
+          <t>6 à 9 salariés</t>
         </is>
       </c>
     </row>
@@ -2054,10 +2122,10 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>51</v>
+        <v>1017</v>
       </c>
       <c r="D45" t="n">
-        <v>75691</v>
+        <v>1517684</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -2071,12 +2139,12 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>20 à 49 salariés</t>
+          <t>10 à 19 salariés</t>
         </is>
       </c>
     </row>
@@ -2092,10 +2160,10 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D46" t="n">
-        <v>13500</v>
+        <v>77191</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -2109,12 +2177,12 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>12</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>50 à 99 salariés</t>
+          <t>20 à 49 salariés</t>
         </is>
       </c>
     </row>
@@ -2130,10 +2198,10 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D47" t="n">
-        <v>4500</v>
+        <v>15000</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -2147,12 +2215,12 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>21</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>100 à 199 salariés</t>
+          <t>50 à 99 salariés</t>
         </is>
       </c>
     </row>
@@ -2168,10 +2236,10 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>15326</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
-        <v>20498314</v>
+        <v>4500</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -2185,12 +2253,12 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>NN</t>
+          <t>22</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Etablissement non employeur</t>
+          <t>100 à 199 salariés</t>
         </is>
       </c>
     </row>
@@ -2206,29 +2274,29 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>1655</v>
+        <v>15387</v>
       </c>
       <c r="D49" t="n">
-        <v>2402294</v>
+        <v>20575600</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>44</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Guadeloupe</t>
+          <t>Grand Est</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>NN</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>0 salarié</t>
+          <t>Etablissement non employeur</t>
         </is>
       </c>
     </row>
@@ -2244,10 +2312,10 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5846</v>
+        <v>1664</v>
       </c>
       <c r="D50" t="n">
-        <v>8611745</v>
+        <v>2415094</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -2261,12 +2329,12 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>00</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>1 ou 2 salariés</t>
+          <t>0 salarié</t>
         </is>
       </c>
     </row>
@@ -2282,10 +2350,10 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2058</v>
+        <v>5872</v>
       </c>
       <c r="D51" t="n">
-        <v>3075015</v>
+        <v>8648593</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -2299,12 +2367,12 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>01</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>3 à 5 salariés</t>
+          <t>1 ou 2 salariés</t>
         </is>
       </c>
     </row>
@@ -2320,10 +2388,10 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>672</v>
+        <v>2063</v>
       </c>
       <c r="D52" t="n">
-        <v>1003305</v>
+        <v>3081370</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -2337,12 +2405,12 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>02</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>6 à 9 salariés</t>
+          <t>3 à 5 salariés</t>
         </is>
       </c>
     </row>
@@ -2358,10 +2426,10 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>150</v>
+        <v>672</v>
       </c>
       <c r="D53" t="n">
-        <v>222611</v>
+        <v>1003305</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -2375,12 +2443,12 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>03</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>10 à 19 salariés</t>
+          <t>6 à 9 salariés</t>
         </is>
       </c>
     </row>
@@ -2396,10 +2464,10 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>13</v>
+        <v>150</v>
       </c>
       <c r="D54" t="n">
-        <v>19500</v>
+        <v>222611</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -2413,12 +2481,12 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>20 à 49 salariés</t>
+          <t>10 à 19 salariés</t>
         </is>
       </c>
     </row>
@@ -2434,10 +2502,10 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5192</v>
+        <v>13</v>
       </c>
       <c r="D55" t="n">
-        <v>7174702</v>
+        <v>19500</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -2451,12 +2519,12 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>NN</t>
+          <t>12</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Etablissement non employeur</t>
+          <t>20 à 49 salariés</t>
         </is>
       </c>
     </row>
@@ -2472,29 +2540,29 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>660</v>
+        <v>5242</v>
       </c>
       <c r="D56" t="n">
-        <v>967645</v>
+        <v>7244775</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>01</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Guyane</t>
+          <t>Guadeloupe</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>NN</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>0 salarié</t>
+          <t>Etablissement non employeur</t>
         </is>
       </c>
     </row>
@@ -2510,10 +2578,10 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>1658</v>
+        <v>663</v>
       </c>
       <c r="D57" t="n">
-        <v>2456107</v>
+        <v>971011</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -2527,12 +2595,12 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>00</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>1 ou 2 salariés</t>
+          <t>0 salarié</t>
         </is>
       </c>
     </row>
@@ -2548,10 +2616,10 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>662</v>
+        <v>1673</v>
       </c>
       <c r="D58" t="n">
-        <v>987219</v>
+        <v>2478607</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -2565,12 +2633,12 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>01</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>3 à 5 salariés</t>
+          <t>1 ou 2 salariés</t>
         </is>
       </c>
     </row>
@@ -2586,10 +2654,10 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>221</v>
+        <v>662</v>
       </c>
       <c r="D59" t="n">
-        <v>331258</v>
+        <v>987219</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -2603,12 +2671,12 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>02</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>6 à 9 salariés</t>
+          <t>3 à 5 salariés</t>
         </is>
       </c>
     </row>
@@ -2624,10 +2692,10 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>44</v>
+        <v>223</v>
       </c>
       <c r="D60" t="n">
-        <v>66000</v>
+        <v>334258</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -2641,12 +2709,12 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>03</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>10 à 19 salariés</t>
+          <t>6 à 9 salariés</t>
         </is>
       </c>
     </row>
@@ -2662,10 +2730,10 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="D61" t="n">
-        <v>13500</v>
+        <v>67500</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -2679,12 +2747,12 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>20 à 49 salariés</t>
+          <t>10 à 19 salariés</t>
         </is>
       </c>
     </row>
@@ -2700,10 +2768,10 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>968</v>
+        <v>9</v>
       </c>
       <c r="D62" t="n">
-        <v>1370542</v>
+        <v>13500</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -2717,12 +2785,12 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>NN</t>
+          <t>12</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Etablissement non employeur</t>
+          <t>20 à 49 salariés</t>
         </is>
       </c>
     </row>
@@ -2738,29 +2806,29 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>14181</v>
+        <v>971</v>
       </c>
       <c r="D63" t="n">
-        <v>20506992</v>
+        <v>1375042</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>03</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Hauts-de-France</t>
+          <t>Guyane</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>NN</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>0 salarié</t>
+          <t>Etablissement non employeur</t>
         </is>
       </c>
     </row>
@@ -2776,10 +2844,10 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>42019</v>
+        <v>14224</v>
       </c>
       <c r="D64" t="n">
-        <v>61557627</v>
+        <v>20567531</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -2793,12 +2861,12 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>00</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>1 ou 2 salariés</t>
+          <t>0 salarié</t>
         </is>
       </c>
     </row>
@@ -2814,10 +2882,10 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>14817</v>
+        <v>42152</v>
       </c>
       <c r="D65" t="n">
-        <v>22033895</v>
+        <v>61743623</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -2831,12 +2899,12 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>01</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>3 à 5 salariés</t>
+          <t>1 ou 2 salariés</t>
         </is>
       </c>
     </row>
@@ -2852,10 +2920,10 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4245</v>
+        <v>14871</v>
       </c>
       <c r="D66" t="n">
-        <v>6325607</v>
+        <v>22114347</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -2869,12 +2937,12 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>02</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>6 à 9 salariés</t>
+          <t>3 à 5 salariés</t>
         </is>
       </c>
     </row>
@@ -2890,10 +2958,10 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>804</v>
+        <v>4260</v>
       </c>
       <c r="D67" t="n">
-        <v>1198739</v>
+        <v>6346793</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -2907,12 +2975,12 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>03</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>10 à 19 salariés</t>
+          <t>6 à 9 salariés</t>
         </is>
       </c>
     </row>
@@ -2928,10 +2996,10 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>67</v>
+        <v>814</v>
       </c>
       <c r="D68" t="n">
-        <v>99189</v>
+        <v>1213739</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -2945,12 +3013,12 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>20 à 49 salariés</t>
+          <t>10 à 19 salariés</t>
         </is>
       </c>
     </row>
@@ -2966,10 +3034,10 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>8</v>
+        <v>67</v>
       </c>
       <c r="D69" t="n">
-        <v>10787</v>
+        <v>99189</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -2983,12 +3051,12 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>12</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>50 à 99 salariés</t>
+          <t>20 à 49 salariés</t>
         </is>
       </c>
     </row>
@@ -3004,10 +3072,10 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>14074</v>
+        <v>8</v>
       </c>
       <c r="D70" t="n">
-        <v>18643374</v>
+        <v>10787</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -3021,12 +3089,12 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>NN</t>
+          <t>21</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Etablissement non employeur</t>
+          <t>50 à 99 salariés</t>
         </is>
       </c>
     </row>
@@ -3042,29 +3110,29 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>44936</v>
+        <v>14116</v>
       </c>
       <c r="D71" t="n">
-        <v>65445389</v>
+        <v>18699197</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>32</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Île-de-France</t>
+          <t>Hauts-de-France</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>NN</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>0 salarié</t>
+          <t>Etablissement non employeur</t>
         </is>
       </c>
     </row>
@@ -3080,10 +3148,10 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>130752</v>
+        <v>45107</v>
       </c>
       <c r="D72" t="n">
-        <v>192800826</v>
+        <v>65690488</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -3097,12 +3165,12 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>00</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>1 ou 2 salariés</t>
+          <t>0 salarié</t>
         </is>
       </c>
     </row>
@@ -3118,10 +3186,10 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>57514</v>
+        <v>131218</v>
       </c>
       <c r="D73" t="n">
-        <v>85740251</v>
+        <v>193481298</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -3135,12 +3203,12 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>01</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>3 à 5 salariés</t>
+          <t>1 ou 2 salariés</t>
         </is>
       </c>
     </row>
@@ -3156,10 +3224,10 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>18212</v>
+        <v>57720</v>
       </c>
       <c r="D74" t="n">
-        <v>27217899</v>
+        <v>86047028</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -3173,12 +3241,12 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>02</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>6 à 9 salariés</t>
+          <t>3 à 5 salariés</t>
         </is>
       </c>
     </row>
@@ -3194,10 +3262,10 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3980</v>
+        <v>18295</v>
       </c>
       <c r="D75" t="n">
-        <v>5947170</v>
+        <v>27342349</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -3211,12 +3279,12 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>03</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>10 à 19 salariés</t>
+          <t>6 à 9 salariés</t>
         </is>
       </c>
     </row>
@@ -3232,10 +3300,10 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>208</v>
+        <v>4026</v>
       </c>
       <c r="D76" t="n">
-        <v>307170</v>
+        <v>6016170</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -3249,12 +3317,12 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>20 à 49 salariés</t>
+          <t>10 à 19 salariés</t>
         </is>
       </c>
     </row>
@@ -3270,10 +3338,10 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>17</v>
+        <v>213</v>
       </c>
       <c r="D77" t="n">
-        <v>24405</v>
+        <v>314670</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -3287,12 +3355,12 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>12</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>50 à 99 salariés</t>
+          <t>20 à 49 salariés</t>
         </is>
       </c>
     </row>
@@ -3308,10 +3376,10 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D78" t="n">
-        <v>8125</v>
+        <v>24405</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -3325,12 +3393,12 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>21</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>100 à 199 salariés</t>
+          <t>50 à 99 salariés</t>
         </is>
       </c>
     </row>
@@ -3346,10 +3414,10 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D79" t="n">
-        <v>4500</v>
+        <v>8125</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -3363,12 +3431,12 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>22</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>200 à 249 salariés</t>
+          <t>100 à 199 salariés</t>
         </is>
       </c>
     </row>
@@ -3401,12 +3469,12 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>31</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>250 à 499 salariés</t>
+          <t>200 à 249 salariés</t>
         </is>
       </c>
     </row>
@@ -3439,12 +3507,12 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>32</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>10 000 salariés et plus</t>
+          <t>250 à 499 salariés</t>
         </is>
       </c>
     </row>
@@ -3460,10 +3528,10 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>44512</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
-        <v>60965825</v>
+        <v>4500</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -3477,12 +3545,12 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>NN</t>
+          <t>53</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Etablissement non employeur</t>
+          <t>10 000 salariés et plus</t>
         </is>
       </c>
     </row>
@@ -3498,29 +3566,29 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4044</v>
+        <v>44636</v>
       </c>
       <c r="D83" t="n">
-        <v>5865730</v>
+        <v>61129665</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>La Réunion</t>
+          <t>Île-de-France</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>NN</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>0 salarié</t>
+          <t>Etablissement non employeur</t>
         </is>
       </c>
     </row>
@@ -3536,10 +3604,10 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>10472</v>
+        <v>4056</v>
       </c>
       <c r="D84" t="n">
-        <v>15396877</v>
+        <v>5883360</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -3553,12 +3621,12 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>00</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>1 ou 2 salariés</t>
+          <t>0 salarié</t>
         </is>
       </c>
     </row>
@@ -3574,10 +3642,10 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3587</v>
+        <v>10514</v>
       </c>
       <c r="D85" t="n">
-        <v>5347696</v>
+        <v>15459077</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -3591,12 +3659,12 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>01</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>3 à 5 salariés</t>
+          <t>1 ou 2 salariés</t>
         </is>
       </c>
     </row>
@@ -3612,10 +3680,10 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>1240</v>
+        <v>3605</v>
       </c>
       <c r="D86" t="n">
-        <v>1854591</v>
+        <v>5374696</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -3629,12 +3697,12 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>02</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>6 à 9 salariés</t>
+          <t>3 à 5 salariés</t>
         </is>
       </c>
     </row>
@@ -3650,10 +3718,10 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>250</v>
+        <v>1247</v>
       </c>
       <c r="D87" t="n">
-        <v>373112</v>
+        <v>1865091</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -3667,12 +3735,12 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>03</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>10 à 19 salariés</t>
+          <t>6 à 9 salariés</t>
         </is>
       </c>
     </row>
@@ -3688,10 +3756,10 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>19</v>
+        <v>252</v>
       </c>
       <c r="D88" t="n">
-        <v>28402</v>
+        <v>376112</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -3705,12 +3773,12 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>20 à 49 salariés</t>
+          <t>10 à 19 salariés</t>
         </is>
       </c>
     </row>
@@ -3726,10 +3794,10 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="D89" t="n">
-        <v>6000</v>
+        <v>29902</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -3743,12 +3811,12 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>12</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>50 à 99 salariés</t>
+          <t>20 à 49 salariés</t>
         </is>
       </c>
     </row>
@@ -3764,10 +3832,10 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4682</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
-        <v>6321763</v>
+        <v>6000</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -3781,12 +3849,12 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>NN</t>
+          <t>21</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Etablissement non employeur</t>
+          <t>50 à 99 salariés</t>
         </is>
       </c>
     </row>
@@ -3802,29 +3870,29 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>1367</v>
+        <v>4704</v>
       </c>
       <c r="D91" t="n">
-        <v>1976158</v>
+        <v>6351787</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>04</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Martinique</t>
+          <t>La Réunion</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>NN</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>0 salarié</t>
+          <t>Etablissement non employeur</t>
         </is>
       </c>
     </row>
@@ -3840,10 +3908,10 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4508</v>
+        <v>1369</v>
       </c>
       <c r="D92" t="n">
-        <v>6642665</v>
+        <v>1978090</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -3857,12 +3925,12 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>00</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>1 ou 2 salariés</t>
+          <t>0 salarié</t>
         </is>
       </c>
     </row>
@@ -3878,10 +3946,10 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>1749</v>
+        <v>4533</v>
       </c>
       <c r="D93" t="n">
-        <v>2608116</v>
+        <v>6679000</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -3895,12 +3963,12 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>01</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>3 à 5 salariés</t>
+          <t>1 ou 2 salariés</t>
         </is>
       </c>
     </row>
@@ -3916,10 +3984,10 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>614</v>
+        <v>1761</v>
       </c>
       <c r="D94" t="n">
-        <v>920141</v>
+        <v>2626116</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -3933,12 +4001,12 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>02</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>6 à 9 salariés</t>
+          <t>3 à 5 salariés</t>
         </is>
       </c>
     </row>
@@ -3954,10 +4022,10 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>148</v>
+        <v>615</v>
       </c>
       <c r="D95" t="n">
-        <v>221569</v>
+        <v>921641</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -3971,12 +4039,12 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>03</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>10 à 19 salariés</t>
+          <t>6 à 9 salariés</t>
         </is>
       </c>
     </row>
@@ -3992,10 +4060,10 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>17</v>
+        <v>149</v>
       </c>
       <c r="D96" t="n">
-        <v>25500</v>
+        <v>223069</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
@@ -4009,12 +4077,12 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>20 à 49 salariés</t>
+          <t>10 à 19 salariés</t>
         </is>
       </c>
     </row>
@@ -4030,10 +4098,10 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="D97" t="n">
-        <v>7500</v>
+        <v>25500</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -4047,12 +4115,12 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>12</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>50 à 99 salariés</t>
+          <t>20 à 49 salariés</t>
         </is>
       </c>
     </row>
@@ -4068,10 +4136,10 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2967</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
-        <v>3937313</v>
+        <v>7500</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
@@ -4085,12 +4153,12 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>NN</t>
+          <t>21</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Etablissement non employeur</t>
+          <t>50 à 99 salariés</t>
         </is>
       </c>
     </row>
@@ -4106,29 +4174,29 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>508</v>
+        <v>2985</v>
       </c>
       <c r="D99" t="n">
-        <v>757464</v>
+        <v>3960717</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>02</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Mayotte</t>
+          <t>Martinique</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>NN</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>0 salarié</t>
+          <t>Etablissement non employeur</t>
         </is>
       </c>
     </row>
@@ -4144,10 +4212,10 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>255</v>
+        <v>508</v>
       </c>
       <c r="D100" t="n">
-        <v>380765</v>
+        <v>757464</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -4161,12 +4229,12 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>00</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>1 ou 2 salariés</t>
+          <t>0 salarié</t>
         </is>
       </c>
     </row>
@@ -4182,10 +4250,10 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>84</v>
+        <v>255</v>
       </c>
       <c r="D101" t="n">
-        <v>126000</v>
+        <v>380765</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -4199,12 +4267,12 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>01</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>3 à 5 salariés</t>
+          <t>1 ou 2 salariés</t>
         </is>
       </c>
     </row>
@@ -4220,10 +4288,10 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="D102" t="n">
-        <v>55500</v>
+        <v>130500</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -4237,12 +4305,12 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>02</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>6 à 9 salariés</t>
+          <t>3 à 5 salariés</t>
         </is>
       </c>
     </row>
@@ -4258,10 +4326,10 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="D103" t="n">
-        <v>25500</v>
+        <v>55500</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -4275,12 +4343,12 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>03</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>10 à 19 salariés</t>
+          <t>6 à 9 salariés</t>
         </is>
       </c>
     </row>
@@ -4296,29 +4364,29 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>9954</v>
+        <v>17</v>
       </c>
       <c r="D104" t="n">
-        <v>14468450</v>
+        <v>25500</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>06</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Normandie</t>
+          <t>Mayotte</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>11</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>0 salarié</t>
+          <t>10 à 19 salariés</t>
         </is>
       </c>
     </row>
@@ -4334,10 +4402,10 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>27532</v>
+        <v>9984</v>
       </c>
       <c r="D105" t="n">
-        <v>40492435</v>
+        <v>14510852</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
@@ -4351,12 +4419,12 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>00</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>1 ou 2 salariés</t>
+          <t>0 salarié</t>
         </is>
       </c>
     </row>
@@ -4372,10 +4440,10 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>9234</v>
+        <v>27624</v>
       </c>
       <c r="D106" t="n">
-        <v>13734660</v>
+        <v>40622727</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -4389,12 +4457,12 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>01</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>3 à 5 salariés</t>
+          <t>1 ou 2 salariés</t>
         </is>
       </c>
     </row>
@@ -4410,10 +4478,10 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>2506</v>
+        <v>9254</v>
       </c>
       <c r="D107" t="n">
-        <v>3736944</v>
+        <v>13764660</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
@@ -4427,12 +4495,12 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>02</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>6 à 9 salariés</t>
+          <t>3 à 5 salariés</t>
         </is>
       </c>
     </row>
@@ -4448,10 +4516,10 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>419</v>
+        <v>2512</v>
       </c>
       <c r="D108" t="n">
-        <v>625982</v>
+        <v>3745410</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
@@ -4465,12 +4533,12 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>03</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>10 à 19 salariés</t>
+          <t>6 à 9 salariés</t>
         </is>
       </c>
     </row>
@@ -4486,10 +4554,10 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>39</v>
+        <v>425</v>
       </c>
       <c r="D109" t="n">
-        <v>58500</v>
+        <v>634982</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
@@ -4503,12 +4571,12 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>20 à 49 salariés</t>
+          <t>10 à 19 salariés</t>
         </is>
       </c>
     </row>
@@ -4524,10 +4592,10 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="D110" t="n">
-        <v>9000</v>
+        <v>58500</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
@@ -4541,12 +4609,12 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>12</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>50 à 99 salariés</t>
+          <t>20 à 49 salariés</t>
         </is>
       </c>
     </row>
@@ -4562,10 +4630,10 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>9075</v>
+        <v>6</v>
       </c>
       <c r="D111" t="n">
-        <v>12030486</v>
+        <v>9000</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
@@ -4579,12 +4647,12 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>NN</t>
+          <t>21</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Etablissement non employeur</t>
+          <t>50 à 99 salariés</t>
         </is>
       </c>
     </row>
@@ -4600,29 +4668,29 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>28000</v>
+        <v>9091</v>
       </c>
       <c r="D112" t="n">
-        <v>40436915</v>
+        <v>12052206</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>28</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Nouvelle-Aquitaine</t>
+          <t>Normandie</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>NN</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>0 salarié</t>
+          <t>Etablissement non employeur</t>
         </is>
       </c>
     </row>
@@ -4638,10 +4706,10 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>62041</v>
+        <v>28065</v>
       </c>
       <c r="D113" t="n">
-        <v>90908653</v>
+        <v>40525965</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
@@ -4655,12 +4723,12 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>00</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>1 ou 2 salariés</t>
+          <t>0 salarié</t>
         </is>
       </c>
     </row>
@@ -4676,10 +4744,10 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>20083</v>
+        <v>62190</v>
       </c>
       <c r="D114" t="n">
-        <v>29870074</v>
+        <v>91117616</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
@@ -4693,12 +4761,12 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>01</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>3 à 5 salariés</t>
+          <t>1 ou 2 salariés</t>
         </is>
       </c>
     </row>
@@ -4714,10 +4782,10 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>5608</v>
+        <v>20150</v>
       </c>
       <c r="D115" t="n">
-        <v>8360909</v>
+        <v>29967937</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -4731,12 +4799,12 @@
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>02</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>6 à 9 salariés</t>
+          <t>3 à 5 salariés</t>
         </is>
       </c>
     </row>
@@ -4752,10 +4820,10 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>986</v>
+        <v>5632</v>
       </c>
       <c r="D116" t="n">
-        <v>1474993</v>
+        <v>8396116</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
@@ -4769,12 +4837,12 @@
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>03</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>10 à 19 salariés</t>
+          <t>6 à 9 salariés</t>
         </is>
       </c>
     </row>
@@ -4790,10 +4858,10 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>56</v>
+        <v>995</v>
       </c>
       <c r="D117" t="n">
-        <v>81420</v>
+        <v>1488493</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
@@ -4807,12 +4875,12 @@
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>20 à 49 salariés</t>
+          <t>10 à 19 salariés</t>
         </is>
       </c>
     </row>
@@ -4828,10 +4896,10 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="D118" t="n">
-        <v>18000</v>
+        <v>82920</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
@@ -4845,12 +4913,12 @@
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>12</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>50 à 99 salariés</t>
+          <t>20 à 49 salariés</t>
         </is>
       </c>
     </row>
@@ -4866,10 +4934,10 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D119" t="n">
-        <v>6070</v>
+        <v>18000</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
@@ -4883,12 +4951,12 @@
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>21</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>100 à 199 salariés</t>
+          <t>50 à 99 salariés</t>
         </is>
       </c>
     </row>
@@ -4904,10 +4972,10 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>23839</v>
+        <v>5</v>
       </c>
       <c r="D120" t="n">
-        <v>31957087</v>
+        <v>6070</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
@@ -4921,12 +4989,12 @@
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>NN</t>
+          <t>22</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Etablissement non employeur</t>
+          <t>100 à 199 salariés</t>
         </is>
       </c>
     </row>
@@ -4942,29 +5010,29 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>32578</v>
+        <v>23907</v>
       </c>
       <c r="D121" t="n">
-        <v>47094864</v>
+        <v>32042607</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>75</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Occitanie</t>
+          <t>Nouvelle-Aquitaine</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>NN</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>0 salarié</t>
+          <t>Etablissement non employeur</t>
         </is>
       </c>
     </row>
@@ -4980,10 +5048,10 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>70984</v>
+        <v>32716</v>
       </c>
       <c r="D122" t="n">
-        <v>103950547</v>
+        <v>47284243</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
@@ -4997,12 +5065,12 @@
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>00</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>1 ou 2 salariés</t>
+          <t>0 salarié</t>
         </is>
       </c>
     </row>
@@ -5018,10 +5086,10 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>22206</v>
+        <v>71316</v>
       </c>
       <c r="D123" t="n">
-        <v>32981113</v>
+        <v>104419753</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
@@ -5035,12 +5103,12 @@
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>01</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>3 à 5 salariés</t>
+          <t>1 ou 2 salariés</t>
         </is>
       </c>
     </row>
@@ -5056,10 +5124,10 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>5864</v>
+        <v>22318</v>
       </c>
       <c r="D124" t="n">
-        <v>8720966</v>
+        <v>33142440</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
@@ -5073,12 +5141,12 @@
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>02</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>6 à 9 salariés</t>
+          <t>3 à 5 salariés</t>
         </is>
       </c>
     </row>
@@ -5094,10 +5162,10 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>1052</v>
+        <v>5893</v>
       </c>
       <c r="D125" t="n">
-        <v>1568269</v>
+        <v>8764044</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
@@ -5111,12 +5179,12 @@
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>03</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>10 à 19 salariés</t>
+          <t>6 à 9 salariés</t>
         </is>
       </c>
     </row>
@@ -5132,10 +5200,10 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>52</v>
+        <v>1059</v>
       </c>
       <c r="D126" t="n">
-        <v>76228</v>
+        <v>1578769</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
@@ -5149,12 +5217,12 @@
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>20 à 49 salariés</t>
+          <t>10 à 19 salariés</t>
         </is>
       </c>
     </row>
@@ -5170,10 +5238,10 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="D127" t="n">
-        <v>21000</v>
+        <v>76228</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
@@ -5187,12 +5255,12 @@
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>12</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>50 à 99 salariés</t>
+          <t>20 à 49 salariés</t>
         </is>
       </c>
     </row>
@@ -5208,10 +5276,10 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D128" t="n">
-        <v>2100</v>
+        <v>21000</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
@@ -5225,12 +5293,12 @@
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>21</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>250 à 499 salariés</t>
+          <t>50 à 99 salariés</t>
         </is>
       </c>
     </row>
@@ -5246,10 +5314,10 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>28860</v>
+        <v>3</v>
       </c>
       <c r="D129" t="n">
-        <v>38463338</v>
+        <v>2100</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
@@ -5263,12 +5331,12 @@
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>NN</t>
+          <t>32</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Etablissement non employeur</t>
+          <t>250 à 499 salariés</t>
         </is>
       </c>
     </row>
@@ -5284,29 +5352,29 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>12223</v>
+        <v>28965</v>
       </c>
       <c r="D130" t="n">
-        <v>17715005</v>
+        <v>38606008</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>76</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Pays de la Loire</t>
+          <t>Occitanie</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>NN</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>0 salarié</t>
+          <t>Etablissement non employeur</t>
         </is>
       </c>
     </row>
@@ -5322,10 +5390,10 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>30474</v>
+        <v>12255</v>
       </c>
       <c r="D131" t="n">
-        <v>44803283</v>
+        <v>17759825</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
@@ -5339,12 +5407,12 @@
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>00</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>1 ou 2 salariés</t>
+          <t>0 salarié</t>
         </is>
       </c>
     </row>
@@ -5360,10 +5428,10 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>10843</v>
+        <v>30553</v>
       </c>
       <c r="D132" t="n">
-        <v>16116895</v>
+        <v>44917872</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
@@ -5377,12 +5445,12 @@
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>01</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>3 à 5 salariés</t>
+          <t>1 ou 2 salariés</t>
         </is>
       </c>
     </row>
@@ -5398,10 +5466,10 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>2729</v>
+        <v>10878</v>
       </c>
       <c r="D133" t="n">
-        <v>4071205</v>
+        <v>16168639</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
@@ -5415,12 +5483,12 @@
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>02</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>6 à 9 salariés</t>
+          <t>3 à 5 salariés</t>
         </is>
       </c>
     </row>
@@ -5436,10 +5504,10 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>429</v>
+        <v>2747</v>
       </c>
       <c r="D134" t="n">
-        <v>637490</v>
+        <v>4096791</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
@@ -5453,12 +5521,12 @@
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>03</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>10 à 19 salariés</t>
+          <t>6 à 9 salariés</t>
         </is>
       </c>
     </row>
@@ -5474,10 +5542,10 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>28</v>
+        <v>433</v>
       </c>
       <c r="D135" t="n">
-        <v>41964</v>
+        <v>643490</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
@@ -5491,12 +5559,12 @@
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>20 à 49 salariés</t>
+          <t>10 à 19 salariés</t>
         </is>
       </c>
     </row>
@@ -5512,10 +5580,10 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="D136" t="n">
-        <v>12000</v>
+        <v>43464</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
@@ -5529,12 +5597,12 @@
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>12</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>50 à 99 salariés</t>
+          <t>20 à 49 salariés</t>
         </is>
       </c>
     </row>
@@ -5550,10 +5618,10 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>10057</v>
+        <v>8</v>
       </c>
       <c r="D137" t="n">
-        <v>13485979</v>
+        <v>12000</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
@@ -5567,12 +5635,12 @@
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>NN</t>
+          <t>21</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Etablissement non employeur</t>
+          <t>50 à 99 salariés</t>
         </is>
       </c>
     </row>
@@ -5588,29 +5656,29 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>31816</v>
+        <v>10089</v>
       </c>
       <c r="D138" t="n">
-        <v>45988698</v>
+        <v>13529653</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>52</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>Provence-Alpes-Côte d'Azur</t>
+          <t>Pays de la Loire</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>NN</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>0 salarié</t>
+          <t>Etablissement non employeur</t>
         </is>
       </c>
     </row>
@@ -5626,10 +5694,10 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>75204</v>
+        <v>31903</v>
       </c>
       <c r="D139" t="n">
-        <v>110273024</v>
+        <v>46114297</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
@@ -5643,12 +5711,12 @@
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>00</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>1 ou 2 salariés</t>
+          <t>0 salarié</t>
         </is>
       </c>
     </row>
@@ -5664,10 +5732,10 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>22684</v>
+        <v>75427</v>
       </c>
       <c r="D140" t="n">
-        <v>33740545</v>
+        <v>110593859</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
@@ -5681,12 +5749,12 @@
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>01</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>3 à 5 salariés</t>
+          <t>1 ou 2 salariés</t>
         </is>
       </c>
     </row>
@@ -5702,10 +5770,10 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>5844</v>
+        <v>22779</v>
       </c>
       <c r="D141" t="n">
-        <v>8724283</v>
+        <v>33878906</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
@@ -5719,12 +5787,12 @@
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>02</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>6 à 9 salariés</t>
+          <t>3 à 5 salariés</t>
         </is>
       </c>
     </row>
@@ -5740,10 +5808,10 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>1242</v>
+        <v>5860</v>
       </c>
       <c r="D142" t="n">
-        <v>1851482</v>
+        <v>8747348</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
@@ -5757,12 +5825,12 @@
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>03</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>10 à 19 salariés</t>
+          <t>6 à 9 salariés</t>
         </is>
       </c>
     </row>
@@ -5778,10 +5846,10 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>65</v>
+        <v>1254</v>
       </c>
       <c r="D143" t="n">
-        <v>97130</v>
+        <v>1869482</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
@@ -5795,12 +5863,12 @@
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>20 à 49 salariés</t>
+          <t>10 à 19 salariés</t>
         </is>
       </c>
     </row>
@@ -5816,10 +5884,10 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="D144" t="n">
-        <v>18000</v>
+        <v>100130</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
@@ -5833,12 +5901,12 @@
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>12</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>50 à 99 salariés</t>
+          <t>20 à 49 salariés</t>
         </is>
       </c>
     </row>
@@ -5854,10 +5922,10 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>26778</v>
+        <v>12</v>
       </c>
       <c r="D145" t="n">
-        <v>36306768</v>
+        <v>18000</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
@@ -5871,10 +5939,48 @@
       </c>
       <c r="G145" t="inlineStr">
         <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>50 à 99 salariés</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Fonds de solidarité</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>VOLET1</t>
+        </is>
+      </c>
+      <c r="C146" t="n">
+        <v>26857</v>
+      </c>
+      <c r="D146" t="n">
+        <v>36407400</v>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>Provence-Alpes-Côte d'Azur</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
           <t>NN</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
+      <c r="H146" t="inlineStr">
         <is>
           <t>Etablissement non employeur</t>
         </is>
